--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_11.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_11.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N247"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4562149047851562</v>
+        <v>0.0007498264312744141</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02173423767089844</v>
+        <v>0.0007789134979248047</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003322124481201172</v>
+        <v>0.0240330696105957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (1, 3), (3, 1), (2, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [1, 3], [3, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (2, 1), (1, 1), (1, 0), (0, 0), (0, 1), (2, 0), (1, 2), (3, 1), (2, 3)]</t>
+          <t>[[3, 2], [2, 2], [2, 1], [1, 1], [1, 0], [0, 0], [0, 1], [2, 0], [1, 2], [3, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[1, 2], [2, 3], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (2, 3), (3, 3), (3, 2), (2, 2), (1, 3), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [2, 3], [3, 3], [3, 2], [2, 2], [1, 3], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 1), (2, 2), (3, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 1], [3, 1], [2, 2], [3, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3)]</t>
+          <t>[[2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[1, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 2), (3, 0), (2, 0), (1, 2), (1, 0), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[1, 3], [2, 2], [3, 0], [2, 0], [1, 2], [1, 0], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -2249,110 +2249,120 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>59</v>
+        <v>0.996439224052002</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.4998829364776611</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.05107474327087402</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
+      <c r="I248" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L247" t="inlineStr">
+      <c r="L248" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr">
+      <c r="M248" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N247" t="inlineStr">
+      <c r="N248" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
